--- a/docs/StructureDefinition-onc-nursing-care-plan.xlsx
+++ b/docs/StructureDefinition-onc-nursing-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-23T02:33:16+00:00</t>
+    <t>2025-11-23T21:00:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-onc-nursing-care-plan.xlsx
+++ b/docs/StructureDefinition-onc-nursing-care-plan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-23T21:00:20+00:00</t>
+    <t>2025-11-23T22:00:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
